--- a/data/trans_dic/Hacinamiento_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.05118242881704416</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.02888115676317242</v>
+        <v>0.02888115676317243</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04498705663354791</v>
+        <v>0.04572587209143553</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03943617370136831</v>
+        <v>0.03986823264286604</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03573167911977959</v>
+        <v>0.03495777476179677</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.021007372741235</v>
+        <v>0.02022782598952544</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04555382490637909</v>
+        <v>0.04654094087673038</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04139864889023428</v>
+        <v>0.04193256788506423</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04021188315108529</v>
+        <v>0.03875251732542638</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01680047308206298</v>
+        <v>0.01739886021213569</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04836914761086458</v>
+        <v>0.04956590723316844</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04390184281477533</v>
+        <v>0.04491854547569582</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04214362697239374</v>
+        <v>0.04209564331475101</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.020727524528107</v>
+        <v>0.02172771384174274</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07587215802799288</v>
+        <v>0.07682889753665288</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06905059523313306</v>
+        <v>0.06977369856743645</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06770192354755637</v>
+        <v>0.06641817308477119</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05252692280400162</v>
+        <v>0.05125225570371137</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07198202338961969</v>
+        <v>0.07158220202196923</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06619660899197646</v>
+        <v>0.06695316986319934</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06837919371789113</v>
+        <v>0.06704965048946011</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0361582967364357</v>
+        <v>0.03627090920990703</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0685278226386274</v>
+        <v>0.06975145299459475</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06294874034896868</v>
+        <v>0.06381942041296923</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06267784741216169</v>
+        <v>0.06249263810757542</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03768097836756219</v>
+        <v>0.03925745124396293</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.04071020040010737</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.03749437853165284</v>
+        <v>0.03749437853165283</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.05384503736078449</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03503873627785645</v>
+        <v>0.03460904481478305</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04345057289063427</v>
+        <v>0.04357298127109151</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03423892352431653</v>
+        <v>0.03408119511071973</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02053161879767479</v>
+        <v>0.02041900964830379</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05177320643546833</v>
+        <v>0.05089377919340918</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05971487963571945</v>
+        <v>0.05933189132425663</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03270166710367572</v>
+        <v>0.03207085747377544</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03022782196976118</v>
+        <v>0.03020529945238366</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0465788972538788</v>
+        <v>0.04598319752990789</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05403981738067291</v>
+        <v>0.0542839022921349</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03606337078521731</v>
+        <v>0.03590047239211083</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02671714256603263</v>
+        <v>0.02677480152129061</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05622520215771575</v>
+        <v>0.05603733191589797</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0638387266197583</v>
+        <v>0.06435319555479696</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05289797207234032</v>
+        <v>0.05288038969213835</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03718589296318883</v>
+        <v>0.03739712515722641</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0771694584292324</v>
+        <v>0.07629998116326384</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08417919205586832</v>
+        <v>0.0842599316032733</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05012604903897944</v>
+        <v>0.05110709630664526</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04644843130029842</v>
+        <v>0.04652795084931129</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06239365096839219</v>
+        <v>0.06164677735076031</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07047710261125019</v>
+        <v>0.07005192599242031</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04947732044876396</v>
+        <v>0.04894040857023225</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03898876827342394</v>
+        <v>0.03882875539124964</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.03524810733548549</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.02234129139399802</v>
+        <v>0.02234129139399803</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.04990717529887578</v>
@@ -969,7 +969,7 @@
         <v>0.04311667593494929</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.02413537569310594</v>
+        <v>0.02413537569310593</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02074738024838895</v>
+        <v>0.02347805805254492</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003740902006537125</v>
+        <v>0.003448771150019924</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02180045261880788</v>
+        <v>0.02078066596068209</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01212104478738129</v>
+        <v>0.01252883383411348</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03231764737063441</v>
+        <v>0.0319106685720949</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03459491341647442</v>
+        <v>0.0316017358392052</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03398828162895891</v>
+        <v>0.03493052497301002</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01545418108005299</v>
+        <v>0.01539316051745278</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03112099624704994</v>
+        <v>0.03131099306583836</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02059697678557329</v>
+        <v>0.0206504173320886</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0313178522715586</v>
+        <v>0.03117352776837249</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01635566187298951</v>
+        <v>0.01711629673299286</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0576366945320085</v>
+        <v>0.05745146506977792</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02414097045876775</v>
+        <v>0.02334451101670759</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05535864212288717</v>
+        <v>0.05291190258402055</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03643470774795257</v>
+        <v>0.03890142628038878</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07317027163735511</v>
+        <v>0.07154354532926675</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07851084438800028</v>
+        <v>0.07762388871714344</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07290895885299488</v>
+        <v>0.07594217364188705</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04302886553741896</v>
+        <v>0.0435150527914487</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05596461224597948</v>
+        <v>0.05860600620400123</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04595291567453899</v>
+        <v>0.0449686172255216</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05758836297680849</v>
+        <v>0.05728888684440153</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0352111136703906</v>
+        <v>0.03486113198999605</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.04321374111255338</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.02720808748047049</v>
+        <v>0.02720808748047048</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.05965660651832618</v>
@@ -1093,7 +1093,7 @@
         <v>0.04562467980713771</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.03267134900770515</v>
+        <v>0.03267134900770516</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.05400007460570384</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04055222725945101</v>
+        <v>0.04151607047531067</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04029042737892476</v>
+        <v>0.04023578365216995</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03675177750325224</v>
+        <v>0.03578257806654699</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02138377840636889</v>
+        <v>0.02183374000736224</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05173895366247423</v>
+        <v>0.05153256432590372</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05412039264024376</v>
+        <v>0.05414312294723592</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03946757418866354</v>
+        <v>0.03873238276187894</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02725453318641763</v>
+        <v>0.02706000745007336</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04826339422890741</v>
+        <v>0.04790087883121463</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05000592273892868</v>
+        <v>0.04955048776961168</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03965573437080665</v>
+        <v>0.03967154023532984</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02616260752698839</v>
+        <v>0.02629982670764786</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05587957405910527</v>
+        <v>0.05637873244903176</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05583726436937242</v>
+        <v>0.05530197391657216</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05161033029620724</v>
+        <v>0.051265030285527</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03329153854398211</v>
+        <v>0.03450103029366345</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06841080906021105</v>
+        <v>0.06855843117732992</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07042738386006676</v>
+        <v>0.07056467071041239</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05249246655033617</v>
+        <v>0.05301928212214166</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03975944809333359</v>
+        <v>0.03880659494907738</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05987213360179742</v>
+        <v>0.05924802034955488</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06109513654898779</v>
+        <v>0.06079848664447383</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04947390186143773</v>
+        <v>0.0493759663086958</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03466021714240128</v>
+        <v>0.03421711634321951</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>46228</v>
+        <v>46987</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>38234</v>
+        <v>38653</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>26758</v>
+        <v>26178</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>12092</v>
+        <v>11643</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>59783</v>
+        <v>61079</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>55161</v>
+        <v>55872</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>39782</v>
+        <v>38339</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13623</v>
+        <v>14108</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>113182</v>
+        <v>115982</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>101059</v>
+        <v>103400</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>73253</v>
+        <v>73170</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>28738</v>
+        <v>30125</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>77966</v>
+        <v>78949</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>66945</v>
+        <v>67646</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>50699</v>
+        <v>49738</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>30234</v>
+        <v>29500</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>94467</v>
+        <v>93942</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>88202</v>
+        <v>89210</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>67649</v>
+        <v>66333</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>29320</v>
+        <v>29411</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>160352</v>
+        <v>163215</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>144904</v>
+        <v>146908</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>108945</v>
+        <v>108623</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>52243</v>
+        <v>54429</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>59115</v>
+        <v>58390</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>85008</v>
+        <v>85248</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>70786</v>
+        <v>70460</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>45449</v>
+        <v>45200</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>81932</v>
+        <v>80541</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>104480</v>
+        <v>103810</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>64690</v>
+        <v>63442</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>65149</v>
+        <v>65101</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>152297</v>
+        <v>150349</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>200276</v>
+        <v>201181</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>145898</v>
+        <v>145239</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>116725</v>
+        <v>116977</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>94859</v>
+        <v>94542</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>124896</v>
+        <v>125903</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>109363</v>
+        <v>109326</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>82316</v>
+        <v>82783</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>122123</v>
+        <v>120747</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>147284</v>
+        <v>147426</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>99158</v>
+        <v>101099</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>100109</v>
+        <v>100281</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>204005</v>
+        <v>201563</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>261194</v>
+        <v>259618</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>200166</v>
+        <v>197994</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>170338</v>
+        <v>169639</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11440</v>
+        <v>12946</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1800</v>
+        <v>1659</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11816</v>
+        <v>11263</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8527</v>
+        <v>8813</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>15364</v>
+        <v>15170</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>15866</v>
+        <v>14494</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>18567</v>
+        <v>19082</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11212</v>
+        <v>11168</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>31955</v>
+        <v>32150</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>19357</v>
+        <v>19408</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>34082</v>
+        <v>33925</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>23371</v>
+        <v>24458</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>31781</v>
+        <v>31679</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11616</v>
+        <v>11233</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>30004</v>
+        <v>28678</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>25630</v>
+        <v>27365</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>34785</v>
+        <v>34011</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>36008</v>
+        <v>35601</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>39828</v>
+        <v>41485</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>31217</v>
+        <v>31570</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>57464</v>
+        <v>60177</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>43187</v>
+        <v>42262</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>62671</v>
+        <v>62345</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>50315</v>
+        <v>49815</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>132449</v>
+        <v>135597</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>137274</v>
+        <v>137088</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>123422</v>
+        <v>120168</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>74686</v>
+        <v>76258</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>174375</v>
+        <v>173679</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>191625</v>
+        <v>191705</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>138680</v>
+        <v>136097</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>100614</v>
+        <v>99896</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>320295</v>
+        <v>317890</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>347433</v>
+        <v>344269</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>272516</v>
+        <v>272624</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>187960</v>
+        <v>188946</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>182510</v>
+        <v>184140</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>190244</v>
+        <v>188421</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>173322</v>
+        <v>172162</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>116276</v>
+        <v>120501</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>230564</v>
+        <v>231061</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>249363</v>
+        <v>249849</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>184446</v>
+        <v>186298</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>146777</v>
+        <v>143260</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>397336</v>
+        <v>393194</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>424479</v>
+        <v>422418</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>339987</v>
+        <v>339314</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>249010</v>
+        <v>245826</v>
       </c>
     </row>
     <row r="20">
